--- a/biology/Médecine/Claude_Sureau/Claude_Sureau.xlsx
+++ b/biology/Médecine/Claude_Sureau/Claude_Sureau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Sureau, né à Paris le 27 septembre 1927 et mort dans la même ville le 24 octobre 2020[1],[2], est un médecin français, ancien président de l'Académie nationale de médecine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Sureau, né à Paris le 27 septembre 1927 et mort dans la même ville le 24 octobre 2020 est un médecin français, ancien président de l'Académie nationale de médecine.
 </t>
         </is>
       </c>
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière
-Claude Sureau a notamment été président de la Société française de médecine périnatale (1975-1977), président de la Fédération internationale de gynécologie obstétrique (1982-1985), président du Comité permanent pour l’étude des aspects éthiques de la reproduction humaine de la FIGO (1982-1985), président de la Fédération des gynécologues obstétriciens de langue française (1986-1988), président de l’Association européenne de gynécologie obstétrique (1988-1991), membre de la Commission nationale de médecine et biologie de la reproduction et du diagnostic prénatal (1995-2002), membre du Haut Conseil de la population et de la famille (1996-2003).
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Sureau a notamment été président de la Société française de médecine périnatale (1975-1977), président de la Fédération internationale de gynécologie obstétrique (1982-1985), président du Comité permanent pour l’étude des aspects éthiques de la reproduction humaine de la FIGO (1982-1985), président de la Fédération des gynécologues obstétriciens de langue française (1986-1988), président de l’Association européenne de gynécologie obstétrique (1988-1991), membre de la Commission nationale de médecine et biologie de la reproduction et du diagnostic prénatal (1995-2002), membre du Haut Conseil de la population et de la famille (1996-2003).
 Membre de l’Académie nationale de médecine (1978) et président honoraire de celle-ci (2000), membre de l’Académie de chirurgie (1987), du Comité consultatif national d’éthique (2005), il est également vice-président de l’Observatoire du principe de précaution (2007) et, depuis 2009, membre du conseil d'orientation de l'Institut Diderot, le fonds de dotation pour le développement de l'économie sociale de Covéa.
-Famille
-Il est le père de trois enfants dont l'écrivain membre de l'Académie française et avocat François Sureau et l'éditrice et écrivaine Véronique Sales.
 </t>
         </is>
       </c>
@@ -543,17 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Décorations
- Grand officier de la Légion d'honneur Il est promu au grade d'officier le 19 juin 1989, puis commandeur le 11 juillet 2003[3], avant d'être élevé à la dignité de grand officier le 13 juillet 2018[4],[5]
- Commandeur de l'ordre national du Mérite Il est directement promu au grade de commandeur pour récompenser ses 46 ans de services civils et militaires par décret du 13 mai 1996[6].
-Honneurs
-Membre d’honneur du Royal College of Obstetricians and Gynaecologists (en) (Royaume-Uni)[réf. nécessaire]
-Membre d'honneur de l’American College of Gynaecology and Obstetrics (en) (États-Unis)[réf. nécessaire]</t>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le père de trois enfants dont l'écrivain membre de l'Académie française et avocat François Sureau et l'éditrice et écrivaine Véronique Sales.
+</t>
         </is>
       </c>
     </row>
@@ -578,10 +595,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de la Légion d'honneur Il est promu au grade d'officier le 19 juin 1989, puis commandeur le 11 juillet 2003, avant d'être élevé à la dignité de grand officier le 13 juillet 2018,
+ Commandeur de l'ordre national du Mérite Il est directement promu au grade de commandeur pour récompenser ses 46 ans de services civils et militaires par décret du 13 mai 1996.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude_Sureau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Sureau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Membre d’honneur du Royal College of Obstetricians and Gynaecologists (en) (Royaume-Uni)[réf. nécessaire]
+Membre d'honneur de l’American College of Gynaecology and Obstetrics (en) (États-Unis)[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Sureau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Sureau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Danger de naître, avec Laurence Deshayes de Cambronne, Plon, Paris, 1978
 Aux débuts de la vie, ouvrage collectif, La Découverte, Paris, 1990
